--- a/biology/Botanique/Burmanniaceae/Burmanniaceae.xlsx
+++ b/biology/Botanique/Burmanniaceae/Burmanniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Burmanniacées regroupe des plantes monocotylédones.
 Ce sont des plantes herbacées, parfois filamenteuses et saprophytes, à feuilles parfois réduites à de simples écailles. Elles sont annuelles ou pérennes et sont largement répandues des régions tempérées à tropicales. 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Burmania qui commémore le botaniste néerlandais Johannes Burman (1707-1780) contemporain de Linné. Burman présenta le botaniste George Clifford (1685-1760) à Linné, dont il résulta une étroite collaboration entre les deux hommes. Burman était spécialiste de la flore du Sri Lanka, de l'île de Ambon (Indonésie)  et du Cap[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Burmania qui commémore le botaniste néerlandais Johannes Burman (1707-1780) contemporain de Linné. Burman présenta le botaniste George Clifford (1685-1760) à Linné, dont il résulta une étroite collaboration entre les deux hommes. Burman était spécialiste de la flore du Sri Lanka, de l'île de Ambon (Indonésie)  et du Cap.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] étend cette famille à toutes les plantes de la famille des Thismiacées.
-Selon World Checklist of Selected Plant Families (WCSP)  (20 juillet 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) étend cette famille à toutes les plantes de la famille des Thismiacées.
+Selon World Checklist of Selected Plant Families (WCSP)  (20 juillet 2017) :
 Afrothismia Schltr. (1906)
 Apteria Nutt. (1834)
 Burmannia L. (1753)
@@ -563,7 +579,7 @@
 Saionia Hatus. (2015).
 Thismia Griff. (1845)
 Tiputinia P.E.Berry &amp; C.L.Woodw. (2007)
-Selon NCBI  (20 juillet 2017)[4] :
+Selon NCBI  (20 juillet 2017) :
 Afrothismia
 Apteria
 Burmannia
@@ -576,12 +592,12 @@
 Hexapterella
 Oxygyne
 Tiputinia
-Selon ITIS      (20 juillet 2017)[5] :
+Selon ITIS      (20 juillet 2017) :
 Apteria Nutt.
 Burmannia L.
 Cymbocarpa Miers
 Gymnosiphon Blume
-Selon DELTA Angio           (15 avr. 2010)[6] :
+Selon DELTA Angio           (15 avr. 2010) :
 Apteria
 Burmannia
 Campylosiphon
@@ -591,7 +607,7 @@
 Hexapterella
 Marthella
 Miersiella
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) :
 Afrothismia (Engl.) Schltr.
 Apteria Nutt.
 Burmannia L.
